--- a/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.946000964865505</v>
+        <v>2.70531819317705</v>
       </c>
       <c r="C2">
-        <v>0.527754458894492</v>
+        <v>0.3207166779239685</v>
       </c>
       <c r="D2">
-        <v>0.00492849422292263</v>
+        <v>0.05951519538582062</v>
       </c>
       <c r="E2">
-        <v>0.02402373234948385</v>
+        <v>0.04383686274461951</v>
       </c>
       <c r="F2">
-        <v>2.099357595427833</v>
+        <v>0.8945322606816575</v>
       </c>
       <c r="G2">
-        <v>0.000824173250041652</v>
+        <v>0.0008076728465473811</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05313728671250395</v>
+        <v>0.0508013026754881</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3018565477695319</v>
+        <v>0.2763722860959064</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.037919270504318</v>
+        <v>0.8290201345247752</v>
       </c>
       <c r="O2">
-        <v>1.524516502598019</v>
+        <v>2.341267636395457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.464646652591057</v>
+        <v>2.360596779939954</v>
       </c>
       <c r="C3">
-        <v>0.4557565363712399</v>
+        <v>0.2875360909944646</v>
       </c>
       <c r="D3">
-        <v>0.004478642311608994</v>
+        <v>0.055530046486993</v>
       </c>
       <c r="E3">
-        <v>0.02412358125777825</v>
+        <v>0.0436268701122664</v>
       </c>
       <c r="F3">
-        <v>1.975435756761357</v>
+        <v>0.8551519866700872</v>
       </c>
       <c r="G3">
-        <v>0.0008322045765041076</v>
+        <v>0.0008121917849405823</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05436632560303956</v>
+        <v>0.05245553632103395</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2709656243401923</v>
+        <v>0.2468768813997428</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100442114288672</v>
+        <v>0.8580007298992456</v>
       </c>
       <c r="O3">
-        <v>1.432994822316005</v>
+        <v>2.244084167534226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.173864792207723</v>
+        <v>2.149825958985616</v>
       </c>
       <c r="C4">
-        <v>0.4120227282470523</v>
+        <v>0.2671304206408394</v>
       </c>
       <c r="D4">
-        <v>0.004213655856335041</v>
+        <v>0.05312337404510714</v>
       </c>
       <c r="E4">
-        <v>0.02420176211813585</v>
+        <v>0.04354879475403095</v>
       </c>
       <c r="F4">
-        <v>1.903698054344872</v>
+        <v>0.8326470358419016</v>
       </c>
       <c r="G4">
-        <v>0.0008372773306380267</v>
+        <v>0.0008150609176399381</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05518276033539138</v>
+        <v>0.05354255557549159</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2523777204617801</v>
+        <v>0.228943428822447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.140497870192668</v>
+        <v>0.8769131698875015</v>
       </c>
       <c r="O4">
-        <v>1.380112465247223</v>
+        <v>2.189217994041172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.056432596547836</v>
+        <v>2.06412473101966</v>
       </c>
       <c r="C5">
-        <v>0.3943001185731703</v>
+        <v>0.258804571803779</v>
       </c>
       <c r="D5">
-        <v>0.004107981288244744</v>
+        <v>0.05215230087927125</v>
       </c>
       <c r="E5">
-        <v>0.0242377731982284</v>
+        <v>0.04352943235933537</v>
       </c>
       <c r="F5">
-        <v>1.87547573416542</v>
+        <v>0.8238755072285571</v>
       </c>
       <c r="G5">
-        <v>0.0008393814411478781</v>
+        <v>0.0008162543025064466</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05553059059870513</v>
+        <v>0.0540030672111822</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2448894463495463</v>
+        <v>0.2216762124752023</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.157225569872733</v>
+        <v>0.8848936789312276</v>
       </c>
       <c r="O5">
-        <v>1.359331105634865</v>
+        <v>2.168003853314048</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.036993539785726</v>
+        <v>2.049904600831042</v>
       </c>
       <c r="C6">
-        <v>0.3913627418561703</v>
+        <v>0.2574213842108435</v>
       </c>
       <c r="D6">
-        <v>0.004090559598586729</v>
+        <v>0.05199162603037166</v>
       </c>
       <c r="E6">
-        <v>0.02424400105047919</v>
+        <v>0.04352695992700362</v>
       </c>
       <c r="F6">
-        <v>1.870848226067238</v>
+        <v>0.8224425122897969</v>
       </c>
       <c r="G6">
-        <v>0.0008397330946170609</v>
+        <v>0.0008164539364459456</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05558924962632261</v>
+        <v>0.0540805832796174</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2436509976494676</v>
+        <v>0.2204718586523882</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.160027232384675</v>
+        <v>0.8862351413028335</v>
       </c>
       <c r="O6">
-        <v>1.355925013773998</v>
+        <v>2.164548564885024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.172276925597657</v>
+        <v>2.148669438176398</v>
       </c>
       <c r="C7">
-        <v>0.4117833379058311</v>
+        <v>0.2670181800766471</v>
       </c>
       <c r="D7">
-        <v>0.004212221980430364</v>
+        <v>0.05311023925353453</v>
       </c>
       <c r="E7">
-        <v>0.02420223108049946</v>
+        <v>0.04354848363206543</v>
       </c>
       <c r="F7">
-        <v>1.903313447919416</v>
+        <v>0.8325271505613969</v>
       </c>
       <c r="G7">
-        <v>0.0008373055561182009</v>
+        <v>0.0008150769135223589</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05518739057375655</v>
+        <v>0.05354869566941822</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.252276392242365</v>
+        <v>0.2288452600423199</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.14072184555792</v>
+        <v>0.8770197000943014</v>
       </c>
       <c r="O7">
-        <v>1.379829169783235</v>
+        <v>2.188927341734598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.778954220154503</v>
+        <v>2.586252378144763</v>
       </c>
       <c r="C8">
-        <v>0.5028189659726934</v>
+        <v>0.3092814317004695</v>
       </c>
       <c r="D8">
-        <v>0.004770729738816204</v>
+        <v>0.0581324875424869</v>
       </c>
       <c r="E8">
-        <v>0.02405460075506305</v>
+        <v>0.04375369405786067</v>
       </c>
       <c r="F8">
-        <v>2.055674516665675</v>
+        <v>0.8805929415145428</v>
       </c>
       <c r="G8">
-        <v>0.0008269139257597048</v>
+        <v>0.0008092116315816002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05354797432781488</v>
+        <v>0.05135664145108443</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2911210482310622</v>
+        <v>0.2661632909091338</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.059122252424448</v>
+        <v>0.8387758237474188</v>
       </c>
       <c r="O8">
-        <v>1.492232054883473</v>
+        <v>2.30672196913784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.013293136518712</v>
+        <v>3.453092491944801</v>
       </c>
       <c r="C9">
-        <v>0.6860808260640567</v>
+        <v>0.3920096968925293</v>
       </c>
       <c r="D9">
-        <v>0.005981289173252247</v>
+        <v>0.06832237760704629</v>
       </c>
       <c r="E9">
-        <v>0.02390356357830381</v>
+        <v>0.04457568931873723</v>
       </c>
       <c r="F9">
-        <v>2.393075570930364</v>
+        <v>0.9891786379088643</v>
       </c>
       <c r="G9">
-        <v>0.0008075923225862225</v>
+        <v>0.0007984389285930134</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05084372400859927</v>
+        <v>0.04764225738735028</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.370748887984476</v>
+        <v>0.3409263136435925</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9130368513062841</v>
+        <v>0.7730164792681649</v>
       </c>
       <c r="O9">
-        <v>1.742124475012801</v>
+        <v>2.578908979658706</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.957926073608519</v>
+        <v>4.097855074457641</v>
       </c>
       <c r="C10">
-        <v>0.8251535479002712</v>
+        <v>0.4528690027221671</v>
       </c>
       <c r="D10">
-        <v>0.006983167221178199</v>
+        <v>0.07605048571445394</v>
       </c>
       <c r="E10">
-        <v>0.02388420913269584</v>
+        <v>0.04545905329430333</v>
       </c>
       <c r="F10">
-        <v>2.670853875996812</v>
+        <v>1.079237929706693</v>
       </c>
       <c r="G10">
-        <v>0.000793938791701124</v>
+        <v>0.0007909382028441432</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04919927159584603</v>
+        <v>0.0452963279917924</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4320470608468838</v>
+        <v>0.397090879526047</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8152909574701432</v>
+        <v>0.7308698289362638</v>
       </c>
       <c r="O10">
-        <v>1.948624513485925</v>
+        <v>2.808553376538356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.398546732410466</v>
+        <v>4.393509814661513</v>
       </c>
       <c r="C11">
-        <v>0.8897774374334517</v>
+        <v>0.4806144398328911</v>
       </c>
       <c r="D11">
-        <v>0.007474653013064714</v>
+        <v>0.07962672982309726</v>
       </c>
       <c r="E11">
-        <v>0.02389716319740476</v>
+        <v>0.04592720846047804</v>
       </c>
       <c r="F11">
-        <v>2.8053266898944</v>
+        <v>1.122810793930526</v>
       </c>
       <c r="G11">
-        <v>0.0007878195199149537</v>
+        <v>0.0007876086178879362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04853335669461423</v>
+        <v>0.04431864431089849</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4607155395038944</v>
+        <v>0.4229754585955448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7731836241302865</v>
+        <v>0.7131632867908593</v>
       </c>
       <c r="O11">
-        <v>2.04879749908973</v>
+        <v>2.920558641749494</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.567220039083224</v>
+        <v>4.505859324467053</v>
       </c>
       <c r="C12">
-        <v>0.9144817815616193</v>
+        <v>0.4911332809337239</v>
       </c>
       <c r="D12">
-        <v>0.007667025199742383</v>
+        <v>0.08099039725628643</v>
       </c>
       <c r="E12">
-        <v>0.02390537786407076</v>
+        <v>0.0461145216107024</v>
       </c>
       <c r="F12">
-        <v>2.857567888851037</v>
+        <v>1.139718465780518</v>
       </c>
       <c r="G12">
-        <v>0.0007855131038662956</v>
+        <v>0.0007863590265902324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04829375451853579</v>
+        <v>0.04396186576725292</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4717008050828895</v>
+        <v>0.4328312540475565</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.757604734780017</v>
+        <v>0.7066807490146729</v>
       </c>
       <c r="O12">
-        <v>2.087746821786027</v>
+        <v>2.96415450121151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.530807940938473</v>
+        <v>4.481644534560871</v>
       </c>
       <c r="C13">
-        <v>0.9091502662134019</v>
+        <v>0.4888672550535489</v>
       </c>
       <c r="D13">
-        <v>0.00762529640362386</v>
+        <v>0.08069627643170918</v>
       </c>
       <c r="E13">
-        <v>0.02390345837636954</v>
+        <v>0.0460737258597721</v>
       </c>
       <c r="F13">
-        <v>2.84625549791437</v>
+        <v>1.136058415889991</v>
       </c>
       <c r="G13">
-        <v>0.0007860093915370578</v>
+        <v>0.0007866276584117551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04834478537324394</v>
+        <v>0.04403809658873747</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4693289048736489</v>
+        <v>0.4307061409905089</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7609431688359791</v>
+        <v>0.7080667862453609</v>
       </c>
       <c r="O13">
-        <v>2.079311141905521</v>
+        <v>2.95471114969294</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.412385560773942</v>
+        <v>4.402744707583963</v>
       </c>
       <c r="C14">
-        <v>0.8918049851162095</v>
+        <v>0.4814795640902219</v>
       </c>
       <c r="D14">
-        <v>0.007490347147730336</v>
+        <v>0.07973872657854741</v>
       </c>
       <c r="E14">
-        <v>0.02389777158128492</v>
+        <v>0.0459424147770946</v>
       </c>
       <c r="F14">
-        <v>2.809597221041116</v>
+        <v>1.124193431591607</v>
       </c>
       <c r="G14">
-        <v>0.0007876295674324352</v>
+        <v>0.0007875055915182252</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04851338803237226</v>
+        <v>0.04428901891913739</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4616166145188032</v>
+        <v>0.4237851870531983</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7718944315200282</v>
+        <v>0.7126254342837441</v>
       </c>
       <c r="O14">
-        <v>2.051980784871475</v>
+        <v>2.924121025367327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.340093434703419</v>
+        <v>4.354468934910756</v>
       </c>
       <c r="C15">
-        <v>0.8812119876926658</v>
+        <v>0.4769560968279905</v>
       </c>
       <c r="D15">
-        <v>0.00740853790205076</v>
+        <v>0.07915344809833158</v>
       </c>
       <c r="E15">
-        <v>0.02389472498076017</v>
+        <v>0.04586330489210155</v>
       </c>
       <c r="F15">
-        <v>2.787319636693837</v>
+        <v>1.116979888054033</v>
       </c>
       <c r="G15">
-        <v>0.0007886233056224461</v>
+        <v>0.000788044796923474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0486183222089096</v>
+        <v>0.04444448546270152</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4569099532686778</v>
+        <v>0.4195530945084158</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7786509569432454</v>
+        <v>0.7154470817376364</v>
       </c>
       <c r="O15">
-        <v>2.035376257779646</v>
+        <v>2.905540639432076</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.929370724389628</v>
+        <v>4.07858510184235</v>
       </c>
       <c r="C16">
-        <v>0.8209606510580727</v>
+        <v>0.4510572843195177</v>
       </c>
       <c r="D16">
-        <v>0.006951858236787789</v>
+        <v>0.07581804914222801</v>
       </c>
       <c r="E16">
-        <v>0.02388381527647443</v>
+        <v>0.04542983434183689</v>
       </c>
       <c r="F16">
-        <v>2.662241622359858</v>
+        <v>1.076445518387899</v>
       </c>
       <c r="G16">
-        <v>0.0007943403503056598</v>
+        <v>0.0007911574080307405</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04924450616110043</v>
+        <v>0.04536207141921089</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4301906389198962</v>
+        <v>0.395406479475426</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8180924647510395</v>
+        <v>0.7320574785473326</v>
       </c>
       <c r="O16">
-        <v>1.942213317531682</v>
+        <v>2.801393464187612</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.680368037117205</v>
+        <v>3.909977804894766</v>
       </c>
       <c r="C17">
-        <v>0.7843715595745948</v>
+        <v>0.4351870792076511</v>
       </c>
       <c r="D17">
-        <v>0.006681594762157683</v>
+        <v>0.07378791161900011</v>
       </c>
       <c r="E17">
-        <v>0.02388281647528778</v>
+        <v>0.04518124111373467</v>
       </c>
       <c r="F17">
-        <v>2.587690711915343</v>
+        <v>1.052268808062422</v>
       </c>
       <c r="G17">
-        <v>0.0007978694724265322</v>
+        <v>0.0007930876061555789</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04965019972397577</v>
+        <v>0.04594830210599099</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4140110133187562</v>
+        <v>0.3806830341985119</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8429107594772809</v>
+        <v>0.7426310156643154</v>
       </c>
       <c r="O17">
-        <v>1.886738317432119</v>
+        <v>2.739500729987299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.538157692728134</v>
+        <v>3.813216984488804</v>
       </c>
       <c r="C18">
-        <v>0.7634519110118561</v>
+        <v>0.4260643932863388</v>
       </c>
       <c r="D18">
-        <v>0.006529432725340456</v>
+        <v>0.07262589795650598</v>
       </c>
       <c r="E18">
-        <v>0.02388427789907599</v>
+        <v>0.04504446638398463</v>
       </c>
       <c r="F18">
-        <v>2.545564175401495</v>
+        <v>1.038606025428862</v>
       </c>
       <c r="G18">
-        <v>0.0007999081274482488</v>
+        <v>0.000794205612903031</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04989122694156478</v>
+        <v>0.04629387282912134</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4047775864328571</v>
+        <v>0.3722456670088263</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8574056972191713</v>
+        <v>0.7488498892584303</v>
       </c>
       <c r="O18">
-        <v>1.855409491939312</v>
+        <v>2.704604982128188</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.490173885687057</v>
+        <v>3.780491246244708</v>
       </c>
       <c r="C19">
-        <v>0.756389359221032</v>
+        <v>0.4229764382523911</v>
       </c>
       <c r="D19">
-        <v>0.006478446317233821</v>
+        <v>0.07223341322237076</v>
       </c>
       <c r="E19">
-        <v>0.02388511726270615</v>
+        <v>0.04499920867653273</v>
       </c>
       <c r="F19">
-        <v>2.531425844303627</v>
+        <v>1.034020813777019</v>
       </c>
       <c r="G19">
-        <v>0.0008005999599333466</v>
+        <v>0.0007945855098861211</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04997413266044148</v>
+        <v>0.04641230045856126</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4016633172678752</v>
+        <v>0.3693941065763653</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.862350462906555</v>
+        <v>0.7509787232595926</v>
       </c>
       <c r="O19">
-        <v>1.844898114993143</v>
+        <v>2.692907815518595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.706768597501991</v>
+        <v>3.92790343959382</v>
       </c>
       <c r="C20">
-        <v>0.7882532942366822</v>
+        <v>0.4368759020534014</v>
       </c>
       <c r="D20">
-        <v>0.006710017073016772</v>
+        <v>0.07400343176975355</v>
       </c>
       <c r="E20">
-        <v>0.02388271085885485</v>
+        <v>0.04520705812634773</v>
       </c>
       <c r="F20">
-        <v>2.595547782562377</v>
+        <v>1.054817076707877</v>
       </c>
       <c r="G20">
-        <v>0.0007974928972501634</v>
+        <v>0.0007928813295460414</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04960621261813536</v>
+        <v>0.0458850248171867</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4157257284861657</v>
+        <v>0.3822471043926896</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8402458425009236</v>
+        <v>0.7414911570648428</v>
       </c>
       <c r="O20">
-        <v>1.892582990105709</v>
+        <v>2.746015841615332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.447117532268635</v>
+        <v>4.42590842517825</v>
       </c>
       <c r="C21">
-        <v>0.8968930792474623</v>
+        <v>0.4836491454533984</v>
       </c>
       <c r="D21">
-        <v>0.007529805403621026</v>
+        <v>0.08001972069062191</v>
       </c>
       <c r="E21">
-        <v>0.02389935056098391</v>
+        <v>0.04598070759593575</v>
       </c>
       <c r="F21">
-        <v>2.820327527866965</v>
+        <v>1.12766712773454</v>
       </c>
       <c r="G21">
-        <v>0.000787153409267678</v>
+        <v>0.0007872474210582221</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04846351789718106</v>
+        <v>0.04421494712031304</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4638782554387006</v>
+        <v>0.4258165294795191</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7686676067592444</v>
+        <v>0.7112803115167878</v>
       </c>
       <c r="O21">
-        <v>2.059979774674517</v>
+        <v>2.93307319324353</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.941725849191357</v>
+        <v>4.753693417920999</v>
       </c>
       <c r="C22">
-        <v>0.9692725491399301</v>
+        <v>0.5142914483070342</v>
       </c>
       <c r="D22">
-        <v>0.008102707889769523</v>
+        <v>0.08400698947768603</v>
       </c>
       <c r="E22">
-        <v>0.02392961627000822</v>
+        <v>0.0465450681006061</v>
       </c>
       <c r="F22">
-        <v>2.97500890233124</v>
+        <v>1.177671685568654</v>
       </c>
       <c r="G22">
-        <v>0.0007804577048240446</v>
+        <v>0.000783630592950444</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04779035596077286</v>
+        <v>0.04320214500841324</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.496110542020574</v>
+        <v>0.4546086163590672</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7240370170840009</v>
+        <v>0.6928389944791391</v>
       </c>
       <c r="O22">
-        <v>2.1753716937191</v>
+        <v>3.062265897198444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.676669094670217</v>
+        <v>4.578518140778328</v>
       </c>
       <c r="C23">
-        <v>0.9305026733969157</v>
+        <v>0.4979290978764936</v>
       </c>
       <c r="D23">
-        <v>0.00779312505637364</v>
+        <v>0.08187360786667597</v>
       </c>
       <c r="E23">
-        <v>0.02391162252698287</v>
+        <v>0.04623831037893567</v>
       </c>
       <c r="F23">
-        <v>2.891685519288529</v>
+        <v>1.150752779001039</v>
       </c>
       <c r="G23">
-        <v>0.0007840265399384219</v>
+        <v>0.0007855552067490845</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04814262375443512</v>
+        <v>0.04373529399192222</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4788318856582379</v>
+        <v>0.4392107380345465</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7476505827661839</v>
+        <v>0.7025581357409223</v>
       </c>
       <c r="O23">
-        <v>2.113193492335185</v>
+        <v>2.992644007050188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.694829980538259</v>
+        <v>3.919798722927055</v>
       </c>
       <c r="C24">
-        <v>0.7864980037238354</v>
+        <v>0.4361123814426549</v>
       </c>
       <c r="D24">
-        <v>0.006697157411275079</v>
+        <v>0.07390597915302521</v>
       </c>
       <c r="E24">
-        <v>0.0238827522807501</v>
+        <v>0.04519536715242367</v>
       </c>
       <c r="F24">
-        <v>2.591993326707993</v>
+        <v>1.053664269561381</v>
       </c>
       <c r="G24">
-        <v>0.0007976631165640032</v>
+        <v>0.000792974561276208</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04962607498484495</v>
+        <v>0.04591360592610272</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4149502937534777</v>
+        <v>0.3815399035319587</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8414499477676287</v>
+        <v>0.7420060519252019</v>
       </c>
       <c r="O24">
-        <v>1.889938864163881</v>
+        <v>2.743068226450816</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.673569958838186</v>
+        <v>3.217399763621358</v>
       </c>
       <c r="C25">
-        <v>0.6358471886933899</v>
+        <v>0.3696288156185403</v>
       </c>
       <c r="D25">
-        <v>0.005637452840757451</v>
+        <v>0.06552588171251728</v>
       </c>
       <c r="E25">
-        <v>0.02392890712897167</v>
+        <v>0.04430604479626155</v>
       </c>
       <c r="F25">
-        <v>2.297050202675322</v>
+        <v>0.9581160077799211</v>
       </c>
       <c r="G25">
-        <v>0.0008127161644881663</v>
+        <v>0.000801278217366086</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05151761242005648</v>
+        <v>0.04858187938151026</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3487707929874801</v>
+        <v>0.3205046484245599</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9509601376885009</v>
+        <v>0.7897641831800755</v>
       </c>
       <c r="O25">
-        <v>1.67088869625718</v>
+        <v>2.500413635530521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.70531819317705</v>
+        <v>2.310066286844233</v>
       </c>
       <c r="C2">
-        <v>0.3207166779239685</v>
+        <v>0.3233814295081316</v>
       </c>
       <c r="D2">
-        <v>0.05951519538582062</v>
+        <v>0.103089867644691</v>
       </c>
       <c r="E2">
-        <v>0.04383686274461951</v>
+        <v>0.06468926462940416</v>
       </c>
       <c r="F2">
-        <v>0.8945322606816575</v>
+        <v>0.6024378403042974</v>
       </c>
       <c r="G2">
-        <v>0.0008076728465473811</v>
+        <v>0.3708168879562095</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.778214617909057E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0508013026754881</v>
+        <v>0.3058759200949908</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2749953556957472</v>
       </c>
       <c r="L2">
-        <v>0.2763722860959064</v>
+        <v>0.06914951726927754</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8290201345247752</v>
+        <v>0.3166457378484751</v>
       </c>
       <c r="O2">
-        <v>2.341267636395457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8801204271677463</v>
+      </c>
+      <c r="Q2">
+        <v>1.375215496334675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.360596779939954</v>
+        <v>2.01359613221814</v>
       </c>
       <c r="C3">
-        <v>0.2875360909944646</v>
+        <v>0.2924693803777956</v>
       </c>
       <c r="D3">
-        <v>0.055530046486993</v>
+        <v>0.09596684571842218</v>
       </c>
       <c r="E3">
-        <v>0.0436268701122664</v>
+        <v>0.0623902901714608</v>
       </c>
       <c r="F3">
-        <v>0.8551519866700872</v>
+        <v>0.5754600947593715</v>
       </c>
       <c r="G3">
-        <v>0.0008121917849405823</v>
+        <v>0.3501832340098758</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002977428781399949</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05245553632103395</v>
+        <v>0.3005650877525099</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2766726193340467</v>
       </c>
       <c r="L3">
-        <v>0.2468768813997428</v>
+        <v>0.06752117440525307</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8580007298992456</v>
+        <v>0.2826551605011218</v>
       </c>
       <c r="O3">
-        <v>2.244084167534226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8759586525506933</v>
+      </c>
+      <c r="Q3">
+        <v>1.320055733601976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.149825958985616</v>
+        <v>1.831314201588469</v>
       </c>
       <c r="C4">
-        <v>0.2671304206408394</v>
+        <v>0.2734122685533862</v>
       </c>
       <c r="D4">
-        <v>0.05312337404510714</v>
+        <v>0.09161767496996021</v>
       </c>
       <c r="E4">
-        <v>0.04354879475403095</v>
+        <v>0.0609747792309836</v>
       </c>
       <c r="F4">
-        <v>0.8326470358419016</v>
+        <v>0.5595934602952326</v>
       </c>
       <c r="G4">
-        <v>0.0008150609176399381</v>
+        <v>0.3380718313299553</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006529646455700755</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05354255557549159</v>
+        <v>0.2976690633330747</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2781443239571963</v>
       </c>
       <c r="L4">
-        <v>0.228943428822447</v>
+        <v>0.066495956124907</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8769131698875015</v>
+        <v>0.2617681300122285</v>
       </c>
       <c r="O4">
-        <v>2.189217994041172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8740583898118572</v>
+      </c>
+      <c r="Q4">
+        <v>1.288125213794345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.06412473101966</v>
+        <v>1.756962470199426</v>
       </c>
       <c r="C5">
-        <v>0.258804571803779</v>
+        <v>0.2656263801418817</v>
       </c>
       <c r="D5">
-        <v>0.05215230087927125</v>
+        <v>0.08985109745688646</v>
       </c>
       <c r="E5">
-        <v>0.04352943235933537</v>
+        <v>0.06039670601965952</v>
       </c>
       <c r="F5">
-        <v>0.8238755072285571</v>
+        <v>0.553295744490427</v>
       </c>
       <c r="G5">
-        <v>0.0008162543025064466</v>
+        <v>0.333269608180764</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008415290989485236</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0540030672111822</v>
+        <v>0.2965775571927409</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2788513713900862</v>
       </c>
       <c r="L5">
-        <v>0.2216762124752023</v>
+        <v>0.06607150825175179</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8848936789312276</v>
+        <v>0.2532508783762353</v>
       </c>
       <c r="O5">
-        <v>2.168003853314048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8734443909288743</v>
+      </c>
+      <c r="Q5">
+        <v>1.275579256245678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.049904600831042</v>
+        <v>1.744611950496449</v>
       </c>
       <c r="C6">
-        <v>0.2574213842108435</v>
+        <v>0.2643323174359153</v>
       </c>
       <c r="D6">
-        <v>0.05199162603037166</v>
+        <v>0.08955809457915365</v>
       </c>
       <c r="E6">
-        <v>0.04352695992700362</v>
+        <v>0.06030063525990137</v>
       </c>
       <c r="F6">
-        <v>0.8224425122897969</v>
+        <v>0.5522599532647803</v>
       </c>
       <c r="G6">
-        <v>0.0008164539364459456</v>
+        <v>0.3324800530235308</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0008754203673781991</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0540805832796174</v>
+        <v>0.2964015792414827</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2789751492965138</v>
       </c>
       <c r="L6">
-        <v>0.2204718586523882</v>
+        <v>0.06600061875007501</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862351413028335</v>
+        <v>0.2518362157982352</v>
       </c>
       <c r="O6">
-        <v>2.164548564885024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8733520000389134</v>
+      </c>
+      <c r="Q6">
+        <v>1.273523547231392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.148669438176398</v>
+        <v>1.830311763162058</v>
       </c>
       <c r="C7">
-        <v>0.2670181800766471</v>
+        <v>0.2733073469075578</v>
       </c>
       <c r="D7">
-        <v>0.05311023925353453</v>
+        <v>0.09159382752731915</v>
       </c>
       <c r="E7">
-        <v>0.04354848363206543</v>
+        <v>0.06096698848484294</v>
       </c>
       <c r="F7">
-        <v>0.8325271505613969</v>
+        <v>0.5595078561806162</v>
       </c>
       <c r="G7">
-        <v>0.0008150769135223589</v>
+        <v>0.3380065362834088</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006553332873497908</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05354869566941822</v>
+        <v>0.2976539879738738</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2781534298426571</v>
       </c>
       <c r="L7">
-        <v>0.2288452600423199</v>
+        <v>0.06649025920617824</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8770197000943014</v>
+        <v>0.2616532879503808</v>
       </c>
       <c r="O7">
-        <v>2.188927341734598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.874049465448401</v>
+      </c>
+      <c r="Q7">
+        <v>1.287954155386643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.586252378144763</v>
+        <v>2.207889777260903</v>
       </c>
       <c r="C8">
-        <v>0.3092814317004695</v>
+        <v>0.3127385428975629</v>
       </c>
       <c r="D8">
-        <v>0.0581324875424869</v>
+        <v>0.1006285446222748</v>
       </c>
       <c r="E8">
-        <v>0.04375369405786067</v>
+        <v>0.06389723857042995</v>
       </c>
       <c r="F8">
-        <v>0.8805929415145428</v>
+        <v>0.5929865316419196</v>
       </c>
       <c r="G8">
-        <v>0.0008092116315816002</v>
+        <v>0.3635823559298004</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.486426693570358E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05135664145108443</v>
+        <v>0.3039671177588446</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2754796446098453</v>
       </c>
       <c r="L8">
-        <v>0.2661632909091338</v>
+        <v>0.06859317030046874</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8387758237474188</v>
+        <v>0.3049283595415488</v>
       </c>
       <c r="O8">
-        <v>2.30672196913784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8785467934505817</v>
+      </c>
+      <c r="Q8">
+        <v>1.355781138075145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.453092491944801</v>
+        <v>2.94677799866264</v>
       </c>
       <c r="C9">
-        <v>0.3920096968925293</v>
+        <v>0.3894863369050654</v>
       </c>
       <c r="D9">
-        <v>0.06832237760704629</v>
+        <v>0.1185585139014975</v>
       </c>
       <c r="E9">
-        <v>0.04457568931873723</v>
+        <v>0.06962435621784202</v>
       </c>
       <c r="F9">
-        <v>0.9891786379088643</v>
+        <v>0.6645258980658753</v>
       </c>
       <c r="G9">
-        <v>0.0007984389285930134</v>
+        <v>0.4184919959492532</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0004975549095955767</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04764225738735028</v>
+        <v>0.3193884414510535</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2739197336734804</v>
       </c>
       <c r="L9">
-        <v>0.3409263136435925</v>
+        <v>0.07252826234171561</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7730164792681649</v>
+        <v>0.3897300618105248</v>
       </c>
       <c r="O9">
-        <v>2.578908979658706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8927722814618164</v>
+      </c>
+      <c r="Q9">
+        <v>1.50517196681659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.097855074457641</v>
+        <v>3.476373701324633</v>
       </c>
       <c r="C10">
-        <v>0.4528690027221671</v>
+        <v>0.4476885644310187</v>
       </c>
       <c r="D10">
-        <v>0.07605048571445394</v>
+        <v>0.1299264882960429</v>
       </c>
       <c r="E10">
-        <v>0.04545905329430333</v>
+        <v>0.07209236796140317</v>
       </c>
       <c r="F10">
-        <v>1.079237929706693</v>
+        <v>0.7131001144548392</v>
       </c>
       <c r="G10">
-        <v>0.0007909382028441432</v>
+        <v>0.4568308613311984</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002002946039132869</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0452963279917924</v>
+        <v>0.3301166785949761</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2722556877534252</v>
       </c>
       <c r="L10">
-        <v>0.397090879526047</v>
+        <v>0.07421470849860423</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7308698289362638</v>
+        <v>0.4405009801289026</v>
       </c>
       <c r="O10">
-        <v>2.808553376538356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.912493339532233</v>
+      </c>
+      <c r="Q10">
+        <v>1.609378676805932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.393509814661513</v>
+        <v>3.602794726309241</v>
       </c>
       <c r="C11">
-        <v>0.4806144398328911</v>
+        <v>0.4931784861040569</v>
       </c>
       <c r="D11">
-        <v>0.07962672982309726</v>
+        <v>0.1185030030200451</v>
       </c>
       <c r="E11">
-        <v>0.04592720846047804</v>
+        <v>0.06028755956624643</v>
       </c>
       <c r="F11">
-        <v>1.122810793930526</v>
+        <v>0.6666880359729248</v>
       </c>
       <c r="G11">
-        <v>0.0007876086178879362</v>
+        <v>0.4287709324489555</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02064461718915567</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04431864431089849</v>
+        <v>0.3124376841715559</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2465896406842667</v>
       </c>
       <c r="L11">
-        <v>0.4229754585955448</v>
+        <v>0.0702283639359349</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7131632867908593</v>
+        <v>0.3676219225642114</v>
       </c>
       <c r="O11">
-        <v>2.920558641749494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9749323168774993</v>
+      </c>
+      <c r="Q11">
+        <v>1.51305343772745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.505859324467053</v>
+        <v>3.595241986526162</v>
       </c>
       <c r="C12">
-        <v>0.4911332809337239</v>
+        <v>0.5202963912688574</v>
       </c>
       <c r="D12">
-        <v>0.08099039725628643</v>
+        <v>0.1069843499336685</v>
       </c>
       <c r="E12">
-        <v>0.0461145216107024</v>
+        <v>0.05279206310944318</v>
       </c>
       <c r="F12">
-        <v>1.139718465780518</v>
+        <v>0.617753983408015</v>
       </c>
       <c r="G12">
-        <v>0.0007863590265902324</v>
+        <v>0.3971833210234053</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05918942014793771</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04396186576725292</v>
+        <v>0.2951916973243982</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2259644776692653</v>
       </c>
       <c r="L12">
-        <v>0.4328312540475565</v>
+        <v>0.07312434483220009</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7066807490146729</v>
+        <v>0.3017164848683223</v>
       </c>
       <c r="O12">
-        <v>2.96415450121151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.027626333246928</v>
+      </c>
+      <c r="Q12">
+        <v>1.410037172013773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.481644534560871</v>
+        <v>3.484197142360699</v>
       </c>
       <c r="C13">
-        <v>0.4888672550535489</v>
+        <v>0.5345636087799903</v>
       </c>
       <c r="D13">
-        <v>0.08069627643170918</v>
+        <v>0.09477909670783191</v>
       </c>
       <c r="E13">
-        <v>0.0460737258597721</v>
+        <v>0.04814609969118688</v>
       </c>
       <c r="F13">
-        <v>1.136058415889991</v>
+        <v>0.5640168497757827</v>
       </c>
       <c r="G13">
-        <v>0.0007866276584117551</v>
+        <v>0.3609792275491941</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1146271676317809</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04403809658873747</v>
+        <v>0.2772120225748296</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2079050743040405</v>
       </c>
       <c r="L13">
-        <v>0.4307061409905089</v>
+        <v>0.08127912476876986</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7080667862453609</v>
+        <v>0.2377465976013156</v>
       </c>
       <c r="O13">
-        <v>2.95471114969294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.074705827062743</v>
+      </c>
+      <c r="Q13">
+        <v>1.29560886633891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.402744707583963</v>
+        <v>3.360007415907091</v>
       </c>
       <c r="C14">
-        <v>0.4814795640902219</v>
+        <v>0.5387058224121688</v>
       </c>
       <c r="D14">
-        <v>0.07973872657854741</v>
+        <v>0.08607534916269799</v>
       </c>
       <c r="E14">
-        <v>0.0459424147770946</v>
+        <v>0.04658160609849349</v>
       </c>
       <c r="F14">
-        <v>1.124193431591607</v>
+        <v>0.5246815054291432</v>
       </c>
       <c r="G14">
-        <v>0.0007875055915182252</v>
+        <v>0.3338456451405847</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1636961181881134</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04428901891913739</v>
+        <v>0.2644180683174255</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1966354204337577</v>
       </c>
       <c r="L14">
-        <v>0.4237851870531983</v>
+        <v>0.09011431383162005</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7126254342837441</v>
+        <v>0.1951183497396514</v>
       </c>
       <c r="O14">
-        <v>2.924121025367327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.105131430747008</v>
+      </c>
+      <c r="Q14">
+        <v>1.211235912127279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.354468934910756</v>
+        <v>3.308188401229586</v>
       </c>
       <c r="C15">
-        <v>0.4769560968279905</v>
+        <v>0.536797055283472</v>
       </c>
       <c r="D15">
-        <v>0.07915344809833158</v>
+        <v>0.08376083474263396</v>
       </c>
       <c r="E15">
-        <v>0.04586330489210155</v>
+        <v>0.0464156569528118</v>
       </c>
       <c r="F15">
-        <v>1.116979888054033</v>
+        <v>0.5140786904326049</v>
       </c>
       <c r="G15">
-        <v>0.000788044796923474</v>
+        <v>0.326270261206858</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760788513910825</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04444448546270152</v>
+        <v>0.261170528428579</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1943573599929032</v>
       </c>
       <c r="L15">
-        <v>0.4195530945084158</v>
+        <v>0.0924830173485276</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7154470817376364</v>
+        <v>0.184434556220765</v>
       </c>
       <c r="O15">
-        <v>2.905540639432076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.110617245110532</v>
+      </c>
+      <c r="Q15">
+        <v>1.18834129464841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.07858510184235</v>
+        <v>3.105143297471216</v>
       </c>
       <c r="C16">
-        <v>0.4510572843195177</v>
+        <v>0.5081766255240723</v>
       </c>
       <c r="D16">
-        <v>0.07581804914222801</v>
+        <v>0.08163175435501557</v>
       </c>
       <c r="E16">
-        <v>0.04542983434183689</v>
+        <v>0.04635061143443742</v>
       </c>
       <c r="F16">
-        <v>1.076445518387899</v>
+        <v>0.5044804731384076</v>
       </c>
       <c r="G16">
-        <v>0.0007911574080307405</v>
+        <v>0.3172513749769266</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1626977371694096</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04536207141921089</v>
+        <v>0.2601469348174064</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1985252229627257</v>
       </c>
       <c r="L16">
-        <v>0.395406479475426</v>
+        <v>0.08970981033912651</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7320574785473326</v>
+        <v>0.1774501187239466</v>
       </c>
       <c r="O16">
-        <v>2.801393464187612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.089206513669581</v>
+      </c>
+      <c r="Q16">
+        <v>1.166884226248811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.909977804894766</v>
+        <v>3.01539572812294</v>
       </c>
       <c r="C17">
-        <v>0.4351870792076511</v>
+        <v>0.4841078945288757</v>
       </c>
       <c r="D17">
-        <v>0.07378791161900011</v>
+        <v>0.08452713962430636</v>
       </c>
       <c r="E17">
-        <v>0.04518124111373467</v>
+        <v>0.04686405110882608</v>
       </c>
       <c r="F17">
-        <v>1.052268808062422</v>
+        <v>0.5179395228932577</v>
       </c>
       <c r="G17">
-        <v>0.0007930876061555789</v>
+        <v>0.3247393364665498</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245920525086177</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04594830210599099</v>
+        <v>0.266190029178766</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2077073541959216</v>
       </c>
       <c r="L17">
-        <v>0.3806830341985119</v>
+        <v>0.08239503367318335</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7426310156643154</v>
+        <v>0.1938325700038988</v>
       </c>
       <c r="O17">
-        <v>2.739500729987299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.056997277997539</v>
+      </c>
+      <c r="Q17">
+        <v>1.195295824631245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.813216984488804</v>
+        <v>3.011982942251166</v>
       </c>
       <c r="C18">
-        <v>0.4260643932863388</v>
+        <v>0.4615652910763401</v>
       </c>
       <c r="D18">
-        <v>0.07262589795650598</v>
+        <v>0.09239199615522864</v>
       </c>
       <c r="E18">
-        <v>0.04504446638398463</v>
+        <v>0.04940595085782018</v>
       </c>
       <c r="F18">
-        <v>1.038606025428862</v>
+        <v>0.5531904802848402</v>
       </c>
       <c r="G18">
-        <v>0.000794205612903031</v>
+        <v>0.3474706597817487</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07170188004257483</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04629387282912134</v>
+        <v>0.2790184101008464</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2226241216434275</v>
       </c>
       <c r="L18">
-        <v>0.3722456670088263</v>
+        <v>0.07348670484833697</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7488498892584303</v>
+        <v>0.2356119246994979</v>
       </c>
       <c r="O18">
-        <v>2.704604982128188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.013396142485021</v>
+      </c>
+      <c r="Q18">
+        <v>1.270288315126948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780491246244708</v>
+        <v>3.07776710767746</v>
       </c>
       <c r="C19">
-        <v>0.4229764382523911</v>
+        <v>0.4423144264898156</v>
       </c>
       <c r="D19">
-        <v>0.07223341322237076</v>
+        <v>0.1042298398269708</v>
       </c>
       <c r="E19">
-        <v>0.04499920867653273</v>
+        <v>0.05559171691479747</v>
       </c>
       <c r="F19">
-        <v>1.034020813777019</v>
+        <v>0.6045744452197042</v>
       </c>
       <c r="G19">
-        <v>0.0007945855098861211</v>
+        <v>0.3815101623150952</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02666438698835094</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04641230045856126</v>
+        <v>0.2966125950502345</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2418461623936565</v>
       </c>
       <c r="L19">
-        <v>0.3693941065763653</v>
+        <v>0.06853517623012628</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7509787232595926</v>
+        <v>0.3002536849560471</v>
       </c>
       <c r="O19">
-        <v>2.692907815518595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9659282171037944</v>
+      </c>
+      <c r="Q19">
+        <v>1.379286462480621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.92790343959382</v>
+        <v>3.336802018644846</v>
       </c>
       <c r="C20">
-        <v>0.4368759020534014</v>
+        <v>0.4325063110329097</v>
       </c>
       <c r="D20">
-        <v>0.07400343176975355</v>
+        <v>0.1268497499842027</v>
       </c>
       <c r="E20">
-        <v>0.04520705812634773</v>
+        <v>0.07136804462851387</v>
       </c>
       <c r="F20">
-        <v>1.054817076707877</v>
+        <v>0.6997161457797603</v>
       </c>
       <c r="G20">
-        <v>0.0007928813295460414</v>
+        <v>0.4462945923496591</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001509558945974376</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0458850248171867</v>
+        <v>0.3270405887012231</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2723851817804039</v>
       </c>
       <c r="L20">
-        <v>0.3822471043926896</v>
+        <v>0.073722531846105</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7414911570648428</v>
+        <v>0.4266884013135552</v>
       </c>
       <c r="O20">
-        <v>2.746015841615332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9072617345810272</v>
+      </c>
+      <c r="Q20">
+        <v>1.580481254193359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.42590842517825</v>
+        <v>3.76334968130476</v>
       </c>
       <c r="C21">
-        <v>0.4836491454533984</v>
+        <v>0.473830589318851</v>
       </c>
       <c r="D21">
-        <v>0.08001972069062191</v>
+        <v>0.138666820474981</v>
       </c>
       <c r="E21">
-        <v>0.04598070759593575</v>
+        <v>0.07597123218935664</v>
       </c>
       <c r="F21">
-        <v>1.12766712773454</v>
+        <v>0.7509391918182757</v>
       </c>
       <c r="G21">
-        <v>0.0007872474210582221</v>
+        <v>0.4852485790701309</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00294087105940144</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04421494712031304</v>
+        <v>0.3401179326919106</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2766488553884088</v>
       </c>
       <c r="L21">
-        <v>0.4258165294795191</v>
+        <v>0.07671466115703396</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7112803115167878</v>
+        <v>0.4836346581324307</v>
       </c>
       <c r="O21">
-        <v>2.93307319324353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9148973238628315</v>
+      </c>
+      <c r="Q21">
+        <v>1.690795168455651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.753693417920999</v>
+        <v>4.035704943562791</v>
       </c>
       <c r="C22">
-        <v>0.5142914483070342</v>
+        <v>0.5018754979999187</v>
       </c>
       <c r="D22">
-        <v>0.08400698947768603</v>
+        <v>0.145429577572699</v>
       </c>
       <c r="E22">
-        <v>0.0465450681006061</v>
+        <v>0.07809611964821705</v>
       </c>
       <c r="F22">
-        <v>1.177671685568654</v>
+        <v>0.7812162851305544</v>
       </c>
       <c r="G22">
-        <v>0.000783630592950444</v>
+        <v>0.5087414253214178</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004159304146159837</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04320214500841324</v>
+        <v>0.3477524393188958</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2784356849805754</v>
       </c>
       <c r="L22">
-        <v>0.4546086163590672</v>
+        <v>0.07808867109351603</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6928389944791391</v>
+        <v>0.5149992866067805</v>
       </c>
       <c r="O22">
-        <v>3.062265897198444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9235091513362192</v>
+      </c>
+      <c r="Q22">
+        <v>1.756804990718109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.578518140778328</v>
+        <v>3.890322090691598</v>
       </c>
       <c r="C23">
-        <v>0.4979290978764936</v>
+        <v>0.4869100169113381</v>
       </c>
       <c r="D23">
-        <v>0.08187360786667597</v>
+        <v>0.1418164359037348</v>
       </c>
       <c r="E23">
-        <v>0.04623831037893567</v>
+        <v>0.07696127170000899</v>
       </c>
       <c r="F23">
-        <v>1.150752779001039</v>
+        <v>0.7649698181947571</v>
       </c>
       <c r="G23">
-        <v>0.0007855552067490845</v>
+        <v>0.4961289422032991</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003485118558068878</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04373529399192222</v>
+        <v>0.3436355063277148</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2774310465971332</v>
       </c>
       <c r="L23">
-        <v>0.4392107380345465</v>
+        <v>0.07735625451219086</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7025581357409223</v>
+        <v>0.4982541476798161</v>
       </c>
       <c r="O23">
-        <v>2.992644007050188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9188414556835909</v>
+      </c>
+      <c r="Q23">
+        <v>1.721329797645069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.919798722927055</v>
+        <v>3.340105749898271</v>
       </c>
       <c r="C24">
-        <v>0.4361123814426549</v>
+        <v>0.4301662021054256</v>
       </c>
       <c r="D24">
-        <v>0.07390597915302521</v>
+        <v>0.1282108084771068</v>
       </c>
       <c r="E24">
-        <v>0.04519536715242367</v>
+        <v>0.07267770044734512</v>
       </c>
       <c r="F24">
-        <v>1.053664269561381</v>
+        <v>0.7052889591587501</v>
       </c>
       <c r="G24">
-        <v>0.000792974561276208</v>
+        <v>0.449926681149222</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001438242224051312</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04591360592610272</v>
+        <v>0.3289455692998189</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2747149500385255</v>
       </c>
       <c r="L24">
-        <v>0.3815399035319587</v>
+        <v>0.07455991964014963</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7420060519252019</v>
+        <v>0.4349374167466067</v>
       </c>
       <c r="O24">
-        <v>2.743068226450816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9026938717108663</v>
+      </c>
+      <c r="Q24">
+        <v>1.592166949004138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.217399763621358</v>
+        <v>2.746985718399799</v>
       </c>
       <c r="C25">
-        <v>0.3696288156185403</v>
+        <v>0.3687800851100178</v>
       </c>
       <c r="D25">
-        <v>0.06552588171251728</v>
+        <v>0.1136822309031942</v>
       </c>
       <c r="E25">
-        <v>0.04430604479626155</v>
+        <v>0.06807527110875711</v>
       </c>
       <c r="F25">
-        <v>0.9581160077799211</v>
+        <v>0.6444907941414328</v>
       </c>
       <c r="G25">
-        <v>0.000801278217366086</v>
+        <v>0.4030800622329309</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002007275879714054</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04858187938151026</v>
+        <v>0.3148695702070938</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2739216752090066</v>
       </c>
       <c r="L25">
-        <v>0.3205046484245599</v>
+        <v>0.07148203477083825</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7897641831800755</v>
+        <v>0.3667843697174078</v>
       </c>
       <c r="O25">
-        <v>2.500413635530521</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8883144873801143</v>
+      </c>
+      <c r="Q25">
+        <v>1.462856651153686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.310066286844233</v>
+        <v>2.259682208611594</v>
       </c>
       <c r="C2">
-        <v>0.3233814295081316</v>
+        <v>0.3363941772971941</v>
       </c>
       <c r="D2">
-        <v>0.103089867644691</v>
+        <v>0.1034580647487999</v>
       </c>
       <c r="E2">
-        <v>0.06468926462940416</v>
+        <v>0.06281068654075561</v>
       </c>
       <c r="F2">
-        <v>0.6024378403042974</v>
+        <v>0.5796415646832642</v>
       </c>
       <c r="G2">
-        <v>0.3708168879562095</v>
+        <v>0.3328497959127077</v>
       </c>
       <c r="H2">
-        <v>1.778214617909057E-05</v>
+        <v>6.394776694618187E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3058759200949908</v>
+        <v>0.3337834343535704</v>
       </c>
       <c r="K2">
-        <v>0.2749953556957472</v>
+        <v>0.2559207576927491</v>
       </c>
       <c r="L2">
-        <v>0.06914951726927754</v>
+        <v>0.143631317655398</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05948013733996582</v>
       </c>
       <c r="N2">
-        <v>0.3166457378484751</v>
+        <v>0.06655596212617976</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8801204271677463</v>
+        <v>0.3290779153394539</v>
       </c>
       <c r="Q2">
-        <v>1.375215496334675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8937799956675718</v>
+      </c>
+      <c r="S2">
+        <v>1.312695463058503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.01359613221814</v>
+        <v>1.974808047529791</v>
       </c>
       <c r="C3">
-        <v>0.2924693803777956</v>
+        <v>0.2994670675079902</v>
       </c>
       <c r="D3">
-        <v>0.09596684571842218</v>
+        <v>0.0963593804328724</v>
       </c>
       <c r="E3">
-        <v>0.0623902901714608</v>
+        <v>0.0607825398880415</v>
       </c>
       <c r="F3">
-        <v>0.5754600947593715</v>
+        <v>0.5555373706177491</v>
       </c>
       <c r="G3">
-        <v>0.3501832340098758</v>
+        <v>0.3152684007487281</v>
       </c>
       <c r="H3">
-        <v>0.0002977428781399949</v>
+        <v>0.0002146183706684957</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3005650877525099</v>
+        <v>0.3273926599279733</v>
       </c>
       <c r="K3">
-        <v>0.2766726193340467</v>
+        <v>0.2586939499575749</v>
       </c>
       <c r="L3">
-        <v>0.06752117440525307</v>
+        <v>0.148494250288234</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05780596759959522</v>
       </c>
       <c r="N3">
-        <v>0.2826551605011218</v>
+        <v>0.06512080234820772</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8759586525506933</v>
+        <v>0.2936253008962808</v>
       </c>
       <c r="Q3">
-        <v>1.320055733601976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8822454483090922</v>
+      </c>
+      <c r="S3">
+        <v>1.265140884197379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.831314201588469</v>
+        <v>1.799349910636948</v>
       </c>
       <c r="C4">
-        <v>0.2734122685533862</v>
+        <v>0.2768032763388533</v>
       </c>
       <c r="D4">
-        <v>0.09161767496996021</v>
+        <v>0.09203120298491285</v>
       </c>
       <c r="E4">
-        <v>0.0609747792309836</v>
+        <v>0.05953177749086258</v>
       </c>
       <c r="F4">
-        <v>0.5595934602952326</v>
+        <v>0.5413008393389376</v>
       </c>
       <c r="G4">
-        <v>0.3380718313299553</v>
+        <v>0.3050047562442586</v>
       </c>
       <c r="H4">
-        <v>0.0006529646455700755</v>
+        <v>0.000500307158743496</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2976690633330747</v>
+        <v>0.3236443061580516</v>
       </c>
       <c r="K4">
-        <v>0.2781443239571963</v>
+        <v>0.2607381324054039</v>
       </c>
       <c r="L4">
-        <v>0.066495956124907</v>
+        <v>0.1516508943102401</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05737242304490309</v>
       </c>
       <c r="N4">
-        <v>0.2617681300122285</v>
+        <v>0.06421349429032208</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8740583898118572</v>
+        <v>0.2718755260120957</v>
       </c>
       <c r="Q4">
-        <v>1.288125213794345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8758706993193996</v>
+      </c>
+      <c r="S4">
+        <v>1.237473879161527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.756962470199426</v>
+        <v>1.727707264478028</v>
       </c>
       <c r="C5">
-        <v>0.2656263801418817</v>
+        <v>0.2675693909909143</v>
       </c>
       <c r="D5">
-        <v>0.08985109745688646</v>
+        <v>0.09027474373377231</v>
       </c>
       <c r="E5">
-        <v>0.06039670601965952</v>
+        <v>0.05902049551777289</v>
       </c>
       <c r="F5">
-        <v>0.553295744490427</v>
+        <v>0.5356347748256667</v>
       </c>
       <c r="G5">
-        <v>0.333269608180764</v>
+        <v>0.3009486976777467</v>
       </c>
       <c r="H5">
-        <v>0.0008415290989485236</v>
+        <v>0.0006544706549882484</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2965775571927409</v>
+        <v>0.322159470569602</v>
       </c>
       <c r="K5">
-        <v>0.2788513713900862</v>
+        <v>0.2616540231859297</v>
       </c>
       <c r="L5">
-        <v>0.06607150825175179</v>
+        <v>0.1529801362931309</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05734317692695079</v>
       </c>
       <c r="N5">
-        <v>0.2532508783762353</v>
+        <v>0.06383695577878346</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8734443909288743</v>
+        <v>0.2630156919770315</v>
       </c>
       <c r="Q5">
-        <v>1.275579256245678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8734471160910715</v>
+      </c>
+      <c r="S5">
+        <v>1.226566766965462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.744611950496449</v>
+        <v>1.715802337654793</v>
       </c>
       <c r="C6">
-        <v>0.2643323174359153</v>
+        <v>0.2660362030718062</v>
       </c>
       <c r="D6">
-        <v>0.08955809457915365</v>
+        <v>0.08998351659437986</v>
       </c>
       <c r="E6">
-        <v>0.06030063525990137</v>
+        <v>0.0589354957451782</v>
       </c>
       <c r="F6">
-        <v>0.5522599532647803</v>
+        <v>0.5347019301595139</v>
       </c>
       <c r="G6">
-        <v>0.3324800530235308</v>
+        <v>0.3002826253909276</v>
       </c>
       <c r="H6">
-        <v>0.0008754203673781991</v>
+        <v>0.0006822930727521381</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2964015792414827</v>
+        <v>0.3219154476217625</v>
       </c>
       <c r="K6">
-        <v>0.2789751492965138</v>
+        <v>0.2618110257885853</v>
       </c>
       <c r="L6">
-        <v>0.06600061875007501</v>
+        <v>0.1532034443981587</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05734716692690967</v>
       </c>
       <c r="N6">
-        <v>0.2518362157982352</v>
+        <v>0.06377401419264572</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8733520000389134</v>
+        <v>0.2615446928797809</v>
       </c>
       <c r="Q6">
-        <v>1.273523547231392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8730550968369712</v>
+      </c>
+      <c r="S6">
+        <v>1.224777333774767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.830311763162058</v>
+        <v>1.797220981937244</v>
       </c>
       <c r="C7">
-        <v>0.2733073469075578</v>
+        <v>0.2762327037838617</v>
       </c>
       <c r="D7">
-        <v>0.09159382752731915</v>
+        <v>0.09212908151756238</v>
       </c>
       <c r="E7">
-        <v>0.06096698848484294</v>
+        <v>0.05954512546959734</v>
       </c>
       <c r="F7">
-        <v>0.5595078561806162</v>
+        <v>0.5405014190555519</v>
       </c>
       <c r="G7">
-        <v>0.3380065362834088</v>
+        <v>0.3077651808757196</v>
       </c>
       <c r="H7">
-        <v>0.0006553332873497908</v>
+        <v>0.0005038860177547511</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2976539879738738</v>
+        <v>0.3195319787485644</v>
       </c>
       <c r="K7">
-        <v>0.2781534298426571</v>
+        <v>0.2604735672504717</v>
       </c>
       <c r="L7">
-        <v>0.06649025920617824</v>
+        <v>0.1515241022987297</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05730477598561201</v>
       </c>
       <c r="N7">
-        <v>0.2616532879503808</v>
+        <v>0.06419961994448808</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.874049465448401</v>
+        <v>0.2716655286987333</v>
       </c>
       <c r="Q7">
-        <v>1.287954155386643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8763326903542108</v>
+      </c>
+      <c r="S7">
+        <v>1.235082411589829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.207889777260903</v>
+        <v>2.157666795668206</v>
       </c>
       <c r="C8">
-        <v>0.3127385428975629</v>
+        <v>0.3221541086835629</v>
       </c>
       <c r="D8">
-        <v>0.1006285446222748</v>
+        <v>0.1014125735570985</v>
       </c>
       <c r="E8">
-        <v>0.06389723857042995</v>
+        <v>0.06218149183206911</v>
       </c>
       <c r="F8">
-        <v>0.5929865316419196</v>
+        <v>0.5688114683345873</v>
       </c>
       <c r="G8">
-        <v>0.3635823559298004</v>
+        <v>0.3361068082757939</v>
       </c>
       <c r="H8">
-        <v>7.486426693570358E-05</v>
+        <v>4.576734528760618E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3039671177588446</v>
+        <v>0.3181804446927288</v>
       </c>
       <c r="K8">
-        <v>0.2754796446098453</v>
+        <v>0.2558979551180904</v>
       </c>
       <c r="L8">
-        <v>0.06859317030046874</v>
+        <v>0.1448451290507897</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05851353215520483</v>
       </c>
       <c r="N8">
-        <v>0.3049283595415488</v>
+        <v>0.06603935249318571</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8785467934505817</v>
+        <v>0.3165465620753736</v>
       </c>
       <c r="Q8">
-        <v>1.355781138075145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8913686806212695</v>
+      </c>
+      <c r="S8">
+        <v>1.288531616345679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.94677799866264</v>
+        <v>2.86469547628252</v>
       </c>
       <c r="C9">
-        <v>0.3894863369050654</v>
+        <v>0.4139342974634417</v>
       </c>
       <c r="D9">
-        <v>0.1185585139014975</v>
+        <v>0.1194331834583835</v>
       </c>
       <c r="E9">
-        <v>0.06962435621784202</v>
+        <v>0.06724403489465658</v>
       </c>
       <c r="F9">
-        <v>0.6645258980658753</v>
+        <v>0.6317194722104844</v>
       </c>
       <c r="G9">
-        <v>0.4184919959492532</v>
+        <v>0.3858909972228588</v>
       </c>
       <c r="H9">
-        <v>0.0004975549095955767</v>
+        <v>0.0004829236174110907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3193884414510535</v>
+        <v>0.3314988262993666</v>
       </c>
       <c r="K9">
-        <v>0.2739197336734804</v>
+        <v>0.2507785770632225</v>
       </c>
       <c r="L9">
-        <v>0.07252826234171561</v>
+        <v>0.1336358978987775</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06593519809183945</v>
       </c>
       <c r="N9">
-        <v>0.3897300618105248</v>
+        <v>0.06948278410678199</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8927722814618164</v>
+        <v>0.4050938490046576</v>
       </c>
       <c r="Q9">
-        <v>1.50517196681659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9248506407679855</v>
+      </c>
+      <c r="S9">
+        <v>1.414478276906152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.476373701324633</v>
+        <v>3.363401552216828</v>
       </c>
       <c r="C10">
-        <v>0.4476885644310187</v>
+        <v>0.4804940768433994</v>
       </c>
       <c r="D10">
-        <v>0.1299264882960429</v>
+        <v>0.1316001423086419</v>
       </c>
       <c r="E10">
-        <v>0.07209236796140317</v>
+        <v>0.06941524950218358</v>
       </c>
       <c r="F10">
-        <v>0.7131001144548392</v>
+        <v>0.669642964853665</v>
       </c>
       <c r="G10">
-        <v>0.4568308613311984</v>
+        <v>0.4378703353591504</v>
       </c>
       <c r="H10">
-        <v>0.002002946039132869</v>
+        <v>0.001834678784241373</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3301166785949761</v>
+        <v>0.317731909001111</v>
       </c>
       <c r="K10">
-        <v>0.2722556877534252</v>
+        <v>0.2448885227445565</v>
       </c>
       <c r="L10">
-        <v>0.07421470849860423</v>
+        <v>0.1247785025039558</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07280671314998344</v>
       </c>
       <c r="N10">
-        <v>0.4405009801289026</v>
+        <v>0.07095413708680098</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.912493339532233</v>
+        <v>0.4578221768999668</v>
       </c>
       <c r="Q10">
-        <v>1.609378676805932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9621477124189255</v>
+      </c>
+      <c r="S10">
+        <v>1.487889055054694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.602794726309241</v>
+        <v>3.474416208536127</v>
       </c>
       <c r="C11">
-        <v>0.4931784861040569</v>
+        <v>0.5215690726036257</v>
       </c>
       <c r="D11">
-        <v>0.1185030030200451</v>
+        <v>0.1214099592316558</v>
       </c>
       <c r="E11">
-        <v>0.06028755956624643</v>
+        <v>0.05821052937481674</v>
       </c>
       <c r="F11">
-        <v>0.6666880359729248</v>
+        <v>0.6174007373036972</v>
       </c>
       <c r="G11">
-        <v>0.4287709324489555</v>
+        <v>0.4487181956086346</v>
       </c>
       <c r="H11">
-        <v>0.02064461718915567</v>
+        <v>0.02041161327436569</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3124376841715559</v>
+        <v>0.2610701367217629</v>
       </c>
       <c r="K11">
-        <v>0.2465896406842667</v>
+        <v>0.2192134110659332</v>
       </c>
       <c r="L11">
-        <v>0.0702283639359349</v>
+        <v>0.1130214227115935</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06654430505389897</v>
       </c>
       <c r="N11">
-        <v>0.3676219225642114</v>
+        <v>0.06838882283688363</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9749323168774993</v>
+        <v>0.3816502043514021</v>
       </c>
       <c r="Q11">
-        <v>1.51305343772745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.038252637141923</v>
+      </c>
+      <c r="S11">
+        <v>1.371977991595884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.595241986526162</v>
+        <v>3.465084499635907</v>
       </c>
       <c r="C12">
-        <v>0.5202963912688574</v>
+        <v>0.5444717892749225</v>
       </c>
       <c r="D12">
-        <v>0.1069843499336685</v>
+        <v>0.1102032226973435</v>
       </c>
       <c r="E12">
-        <v>0.05279206310944318</v>
+        <v>0.0510804496585946</v>
       </c>
       <c r="F12">
-        <v>0.617753983408015</v>
+        <v>0.5687935397761379</v>
       </c>
       <c r="G12">
-        <v>0.3971833210234053</v>
+        <v>0.4352080940694663</v>
       </c>
       <c r="H12">
-        <v>0.05918942014793771</v>
+        <v>0.05894942285119953</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2951916973243982</v>
+        <v>0.2324211946560339</v>
       </c>
       <c r="K12">
-        <v>0.2259644776692653</v>
+        <v>0.2006099291556573</v>
       </c>
       <c r="L12">
-        <v>0.07312434483220009</v>
+        <v>0.1058728743602924</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06013880422179341</v>
       </c>
       <c r="N12">
-        <v>0.3017164848683223</v>
+        <v>0.07240612820620562</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.027626333246928</v>
+        <v>0.3131105418634235</v>
       </c>
       <c r="Q12">
-        <v>1.410037172013773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.096760496550246</v>
+      </c>
+      <c r="S12">
+        <v>1.268161956009834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.484197142360699</v>
+        <v>3.365761065144738</v>
       </c>
       <c r="C13">
-        <v>0.5345636087799903</v>
+        <v>0.5559086313162709</v>
       </c>
       <c r="D13">
-        <v>0.09477909670783191</v>
+        <v>0.0974437232496399</v>
       </c>
       <c r="E13">
-        <v>0.04814609969118688</v>
+        <v>0.04669556462158098</v>
       </c>
       <c r="F13">
-        <v>0.5640168497757827</v>
+        <v>0.5212702928941013</v>
       </c>
       <c r="G13">
-        <v>0.3609792275491941</v>
+        <v>0.3950633011399844</v>
       </c>
       <c r="H13">
-        <v>0.1146271676317809</v>
+        <v>0.1144280200557404</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2772120225748296</v>
+        <v>0.2246879298078142</v>
       </c>
       <c r="K13">
-        <v>0.2079050743040405</v>
+        <v>0.1864512864023382</v>
       </c>
       <c r="L13">
-        <v>0.08127912476876986</v>
+        <v>0.1013984249959048</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05361826576233497</v>
       </c>
       <c r="N13">
-        <v>0.2377465976013156</v>
+        <v>0.08149748893116282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.074705827062743</v>
+        <v>0.2469824401653966</v>
       </c>
       <c r="Q13">
-        <v>1.29560886633891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.14139500842613</v>
+      </c>
+      <c r="S13">
+        <v>1.171048504483934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.360007415907091</v>
+        <v>3.255541302066888</v>
       </c>
       <c r="C14">
-        <v>0.5387058224121688</v>
+        <v>0.5587016410598835</v>
       </c>
       <c r="D14">
-        <v>0.08607534916269799</v>
+        <v>0.08805601802204421</v>
       </c>
       <c r="E14">
-        <v>0.04658160609849349</v>
+        <v>0.04530841099988436</v>
       </c>
       <c r="F14">
-        <v>0.5246815054291432</v>
+        <v>0.4884793269642458</v>
       </c>
       <c r="G14">
-        <v>0.3338456451405847</v>
+        <v>0.3566403871068644</v>
       </c>
       <c r="H14">
-        <v>0.1636961181881134</v>
+        <v>0.1635410614056951</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2644180683174255</v>
+        <v>0.2271061973748658</v>
       </c>
       <c r="K14">
-        <v>0.1966354204337577</v>
+        <v>0.1784924265891874</v>
       </c>
       <c r="L14">
-        <v>0.09011431383162005</v>
+        <v>0.09930054983996328</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04914334206799253</v>
       </c>
       <c r="N14">
-        <v>0.1951183497396514</v>
+        <v>0.09086934779593392</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.105131430747008</v>
+        <v>0.2030346237726235</v>
       </c>
       <c r="Q14">
-        <v>1.211235912127279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.166098551106884</v>
+      </c>
+      <c r="S14">
+        <v>1.105673459216021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.308188401229586</v>
+        <v>3.209632672199348</v>
       </c>
       <c r="C15">
-        <v>0.536797055283472</v>
+        <v>0.5567315909517276</v>
       </c>
       <c r="D15">
-        <v>0.08376083474263396</v>
+        <v>0.0854551342734311</v>
       </c>
       <c r="E15">
-        <v>0.0464156569528118</v>
+        <v>0.04519679596406156</v>
       </c>
       <c r="F15">
-        <v>0.5140786904326049</v>
+        <v>0.4804204173971627</v>
       </c>
       <c r="G15">
-        <v>0.326270261206858</v>
+        <v>0.3428744728094131</v>
       </c>
       <c r="H15">
-        <v>0.1760788513910825</v>
+        <v>0.1759433076137498</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.261170528428579</v>
+        <v>0.2311214994494151</v>
       </c>
       <c r="K15">
-        <v>0.1943573599929032</v>
+        <v>0.1772847172931691</v>
       </c>
       <c r="L15">
-        <v>0.0924830173485276</v>
+        <v>0.09919875345331519</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04803479560134249</v>
       </c>
       <c r="N15">
-        <v>0.184434556220765</v>
+        <v>0.09334288681175096</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.110617245110532</v>
+        <v>0.1920736255517355</v>
       </c>
       <c r="Q15">
-        <v>1.18834129464841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.168489952118932</v>
+      </c>
+      <c r="S15">
+        <v>1.09036908263343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.105143297471216</v>
+        <v>3.028098447562513</v>
       </c>
       <c r="C16">
-        <v>0.5081766255240723</v>
+        <v>0.5298256545956974</v>
       </c>
       <c r="D16">
-        <v>0.08163175435501557</v>
+        <v>0.08229833010533838</v>
       </c>
       <c r="E16">
-        <v>0.04635061143443742</v>
+        <v>0.04522124967969132</v>
       </c>
       <c r="F16">
-        <v>0.5044804731384076</v>
+        <v>0.4790975574258027</v>
       </c>
       <c r="G16">
-        <v>0.3172513749769266</v>
+        <v>0.3056808610473567</v>
       </c>
       <c r="H16">
-        <v>0.1626977371694096</v>
+        <v>0.162640366867052</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2601469348174064</v>
+        <v>0.2623153640615925</v>
       </c>
       <c r="K16">
-        <v>0.1985252229627257</v>
+        <v>0.1838702941749002</v>
       </c>
       <c r="L16">
-        <v>0.08970981033912651</v>
+        <v>0.1031513171847038</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04761306405760379</v>
       </c>
       <c r="N16">
-        <v>0.1774501187239466</v>
+        <v>0.09041863375355064</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.089206513669581</v>
+        <v>0.1853566893153982</v>
       </c>
       <c r="Q16">
-        <v>1.166884226248811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.132973514001179</v>
+      </c>
+      <c r="S16">
+        <v>1.094545811440128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.01539572812294</v>
+        <v>2.945576232196458</v>
       </c>
       <c r="C17">
-        <v>0.4841078945288757</v>
+        <v>0.5068784362850351</v>
       </c>
       <c r="D17">
-        <v>0.08452713962430636</v>
+        <v>0.08483898323995476</v>
       </c>
       <c r="E17">
-        <v>0.04686405110882608</v>
+        <v>0.04565772075813707</v>
       </c>
       <c r="F17">
-        <v>0.5179395228932577</v>
+        <v>0.4948434289446269</v>
       </c>
       <c r="G17">
-        <v>0.3247393364665498</v>
+        <v>0.3008586165349385</v>
       </c>
       <c r="H17">
-        <v>0.1245920525086177</v>
+        <v>0.1245631542008709</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.266190029178766</v>
+        <v>0.2827330627363196</v>
       </c>
       <c r="K17">
-        <v>0.2077073541959216</v>
+        <v>0.1930849205756502</v>
       </c>
       <c r="L17">
-        <v>0.08239503367318335</v>
+        <v>0.1075494603410494</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04946388841005245</v>
       </c>
       <c r="N17">
-        <v>0.1938325700038988</v>
+        <v>0.08272024591496319</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.056997277997539</v>
+        <v>0.2025770032044676</v>
       </c>
       <c r="Q17">
-        <v>1.195295824631245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.094612943944256</v>
+      </c>
+      <c r="S17">
+        <v>1.130527343638732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.011982942251166</v>
+        <v>2.940878221679441</v>
       </c>
       <c r="C18">
-        <v>0.4615652910763401</v>
+        <v>0.4861436022218015</v>
       </c>
       <c r="D18">
-        <v>0.09239199615522864</v>
+        <v>0.09264249409139325</v>
       </c>
       <c r="E18">
-        <v>0.04940595085782018</v>
+        <v>0.04794216941530838</v>
       </c>
       <c r="F18">
-        <v>0.5531904802848402</v>
+        <v>0.5289178999580244</v>
       </c>
       <c r="G18">
-        <v>0.3474706597817487</v>
+        <v>0.3166189954052356</v>
       </c>
       <c r="H18">
-        <v>0.07170188004257483</v>
+        <v>0.07167967493030147</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2790184101008464</v>
+        <v>0.3011217355835569</v>
       </c>
       <c r="K18">
-        <v>0.2226241216434275</v>
+        <v>0.2064130194689788</v>
       </c>
       <c r="L18">
-        <v>0.07348670484833697</v>
+        <v>0.1131816217417629</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05361072839684766</v>
       </c>
       <c r="N18">
-        <v>0.2356119246994979</v>
+        <v>0.07313872766737894</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.013396142485021</v>
+        <v>0.2460018667394479</v>
       </c>
       <c r="Q18">
-        <v>1.270288315126948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.049102049934163</v>
+      </c>
+      <c r="S18">
+        <v>1.202908567390921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.07776710767746</v>
+        <v>2.999741944460538</v>
       </c>
       <c r="C19">
-        <v>0.4423144264898156</v>
+        <v>0.4694791003983312</v>
       </c>
       <c r="D19">
-        <v>0.1042298398269708</v>
+        <v>0.1045853013085818</v>
       </c>
       <c r="E19">
-        <v>0.05559171691479747</v>
+        <v>0.05371058229498438</v>
       </c>
       <c r="F19">
-        <v>0.6045744452197042</v>
+        <v>0.5768169849343394</v>
       </c>
       <c r="G19">
-        <v>0.3815101623150952</v>
+        <v>0.3460275707193574</v>
       </c>
       <c r="H19">
-        <v>0.02666438698835094</v>
+        <v>0.02663348758157724</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2966125950502345</v>
+        <v>0.3191993758736658</v>
       </c>
       <c r="K19">
-        <v>0.2418461623936565</v>
+        <v>0.2228763271594545</v>
       </c>
       <c r="L19">
-        <v>0.06853517623012628</v>
+        <v>0.1196513347742378</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05960721578409078</v>
       </c>
       <c r="N19">
-        <v>0.3002536849560471</v>
+        <v>0.06721262590327193</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9659282171037944</v>
+        <v>0.3130183669782554</v>
       </c>
       <c r="Q19">
-        <v>1.379286462480621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.002221973920911</v>
+      </c>
+      <c r="S19">
+        <v>1.302652353192769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.336802018644846</v>
+        <v>3.236443085769338</v>
       </c>
       <c r="C20">
-        <v>0.4325063110329097</v>
+        <v>0.4647703456084855</v>
       </c>
       <c r="D20">
-        <v>0.1268497499842027</v>
+        <v>0.1278578758247733</v>
       </c>
       <c r="E20">
-        <v>0.07136804462851387</v>
+        <v>0.06869500105348614</v>
       </c>
       <c r="F20">
-        <v>0.6997161457797603</v>
+        <v>0.6617231392859395</v>
       </c>
       <c r="G20">
-        <v>0.4462945923496591</v>
+        <v>0.4132752500528909</v>
       </c>
       <c r="H20">
-        <v>0.001509558945974376</v>
+        <v>0.001401455291919707</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3270405887012231</v>
+        <v>0.3347479961213367</v>
       </c>
       <c r="K20">
-        <v>0.2723851817804039</v>
+        <v>0.2471319251353172</v>
       </c>
       <c r="L20">
-        <v>0.073722531846105</v>
+        <v>0.1273250530469454</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07115116191911142</v>
       </c>
       <c r="N20">
-        <v>0.4266884013135552</v>
+        <v>0.07054874136766287</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9072617345810272</v>
+        <v>0.4438034441337635</v>
       </c>
       <c r="Q20">
-        <v>1.580481254193359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9502327758853539</v>
+      </c>
+      <c r="S20">
+        <v>1.475323277025751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.76334968130476</v>
+        <v>3.61361904112465</v>
       </c>
       <c r="C21">
-        <v>0.473830589318851</v>
+        <v>0.5042437266786521</v>
       </c>
       <c r="D21">
-        <v>0.138666820474981</v>
+        <v>0.1428192473188972</v>
       </c>
       <c r="E21">
-        <v>0.07597123218935664</v>
+        <v>0.07339479944388394</v>
       </c>
       <c r="F21">
-        <v>0.7509391918182757</v>
+        <v>0.6896390510625707</v>
       </c>
       <c r="G21">
-        <v>0.4852485790701309</v>
+        <v>0.5205416024781329</v>
       </c>
       <c r="H21">
-        <v>0.00294087105940144</v>
+        <v>0.002592383537267207</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3401179326919106</v>
+        <v>0.2636033099923552</v>
       </c>
       <c r="K21">
-        <v>0.2766488553884088</v>
+        <v>0.2421418918413352</v>
       </c>
       <c r="L21">
-        <v>0.07671466115703396</v>
+        <v>0.1205299710664534</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07684351598973294</v>
       </c>
       <c r="N21">
-        <v>0.4836346581324307</v>
+        <v>0.07296550004524871</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9148973238628315</v>
+        <v>0.5011283908052064</v>
       </c>
       <c r="Q21">
-        <v>1.690795168455651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9825415569267903</v>
+      </c>
+      <c r="S21">
+        <v>1.515752729870883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.035704943562791</v>
+        <v>3.851622662184752</v>
       </c>
       <c r="C22">
-        <v>0.5018754979999187</v>
+        <v>0.5301330999893423</v>
       </c>
       <c r="D22">
-        <v>0.145429577572699</v>
+        <v>0.1519278005369102</v>
       </c>
       <c r="E22">
-        <v>0.07809611964821705</v>
+        <v>0.07568674906678829</v>
       </c>
       <c r="F22">
-        <v>0.7812162851305544</v>
+        <v>0.7035559813665415</v>
       </c>
       <c r="G22">
-        <v>0.5087414253214178</v>
+        <v>0.5980219271388165</v>
       </c>
       <c r="H22">
-        <v>0.004159304146159837</v>
+        <v>0.00360221836519814</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3477524393188958</v>
+        <v>0.2213276134235471</v>
       </c>
       <c r="K22">
-        <v>0.2784356849805754</v>
+        <v>0.2375895538089381</v>
       </c>
       <c r="L22">
-        <v>0.07808867109351603</v>
+        <v>0.1157977703000626</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08031015126447727</v>
       </c>
       <c r="N22">
-        <v>0.5149992866067805</v>
+        <v>0.07406716389989842</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9235091513362192</v>
+        <v>0.5323794415774614</v>
       </c>
       <c r="Q22">
-        <v>1.756804990718109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.008646219478067</v>
+      </c>
+      <c r="S22">
+        <v>1.532654941435595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.890322090691598</v>
+        <v>3.727901333743432</v>
       </c>
       <c r="C23">
-        <v>0.4869100169113381</v>
+        <v>0.5175670229726279</v>
       </c>
       <c r="D23">
-        <v>0.1418164359037348</v>
+        <v>0.14669763841286</v>
       </c>
       <c r="E23">
-        <v>0.07696127170000899</v>
+        <v>0.07439464693951159</v>
       </c>
       <c r="F23">
-        <v>0.7649698181947571</v>
+        <v>0.6980116742253628</v>
       </c>
       <c r="G23">
-        <v>0.4961289422032991</v>
+        <v>0.5474650154821177</v>
       </c>
       <c r="H23">
-        <v>0.003485118558068878</v>
+        <v>0.00305139478167149</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3436355063277148</v>
+        <v>0.2503340229764888</v>
       </c>
       <c r="K23">
-        <v>0.2774310465971332</v>
+        <v>0.2406849564990736</v>
       </c>
       <c r="L23">
-        <v>0.07735625451219086</v>
+        <v>0.1185262371996121</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07872428251261709</v>
       </c>
       <c r="N23">
-        <v>0.4982541476798161</v>
+        <v>0.07349236303196083</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9188414556835909</v>
+        <v>0.5159469282070717</v>
       </c>
       <c r="Q23">
-        <v>1.721329797645069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.993027712517673</v>
+      </c>
+      <c r="S23">
+        <v>1.529428085186595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.340105749898271</v>
+        <v>3.239320779443801</v>
       </c>
       <c r="C24">
-        <v>0.4301662021054256</v>
+        <v>0.462657458141706</v>
       </c>
       <c r="D24">
-        <v>0.1282108084771068</v>
+        <v>0.1292154877714538</v>
       </c>
       <c r="E24">
-        <v>0.07267770044734512</v>
+        <v>0.06994728944832396</v>
       </c>
       <c r="F24">
-        <v>0.7052889591587501</v>
+        <v>0.6670162123080203</v>
       </c>
       <c r="G24">
-        <v>0.449926681149222</v>
+        <v>0.416008312181475</v>
       </c>
       <c r="H24">
-        <v>0.001438242224051312</v>
+        <v>0.001328188686948284</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3289455692998189</v>
+        <v>0.3372239575963789</v>
       </c>
       <c r="K24">
-        <v>0.2747149500385255</v>
+        <v>0.249173237044868</v>
       </c>
       <c r="L24">
-        <v>0.07455991964014963</v>
+        <v>0.1281635451204721</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07184205150739231</v>
       </c>
       <c r="N24">
-        <v>0.4349374167466067</v>
+        <v>0.07124459025080387</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9026938717108663</v>
+        <v>0.4523475280578282</v>
       </c>
       <c r="Q24">
-        <v>1.592166949004138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9454504978568963</v>
+      </c>
+      <c r="S24">
+        <v>1.486325183073347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.746985718399799</v>
+        <v>2.675501634718671</v>
       </c>
       <c r="C25">
-        <v>0.3687800851100178</v>
+        <v>0.389744794247747</v>
       </c>
       <c r="D25">
-        <v>0.1136822309031942</v>
+        <v>0.1143499876082785</v>
       </c>
       <c r="E25">
-        <v>0.06807527110875711</v>
+        <v>0.06584599761571397</v>
       </c>
       <c r="F25">
-        <v>0.6444907941414328</v>
+        <v>0.6151771423536019</v>
       </c>
       <c r="G25">
-        <v>0.4030800622329309</v>
+        <v>0.3677994555327757</v>
       </c>
       <c r="H25">
-        <v>0.0002007275879714054</v>
+        <v>0.0002093590247769228</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3148695702070938</v>
+        <v>0.3333726337911997</v>
       </c>
       <c r="K25">
-        <v>0.2739216752090066</v>
+        <v>0.2522221726447036</v>
       </c>
       <c r="L25">
-        <v>0.07148203477083825</v>
+        <v>0.1366812115041078</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06353199803814391</v>
       </c>
       <c r="N25">
-        <v>0.3667843697174078</v>
+        <v>0.06858119019175835</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8883144873801143</v>
+        <v>0.3812386817199354</v>
       </c>
       <c r="Q25">
-        <v>1.462856651153686</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9143766534879916</v>
+      </c>
+      <c r="S25">
+        <v>1.382084338634542</v>
       </c>
     </row>
   </sheetData>
